--- a/ea1.xlsx
+++ b/ea1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="587">
   <si>
     <t>Number</t>
   </si>
@@ -584,9 +584,6 @@
     <t>pHi1</t>
   </si>
   <si>
-    <t>det</t>
-  </si>
-  <si>
     <t>Индексы удовлетворенности клиента</t>
   </si>
   <si>
@@ -1785,6 +1782,15 @@
   </si>
   <si>
     <t>Председатель, Команда_проекта</t>
+  </si>
+  <si>
+    <t>service.client</t>
+  </si>
+  <si>
+    <t>service.owner</t>
+  </si>
+  <si>
+    <t>service.regulator</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2218,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2272,7 +2278,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -2617,7 +2623,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -2659,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2698,7 +2704,7 @@
         <v>418</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2731,10 +2737,10 @@
         <v>151</v>
       </c>
       <c r="J17" t="s">
+        <v>418</v>
+      </c>
+      <c r="K17" t="s">
         <v>183</v>
-      </c>
-      <c r="K17" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2827,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2860,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2890,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2905,7 +2911,7 @@
         <v>62</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E23" t="s">
         <v>59</v>
@@ -2920,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2953,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2972,15 +2978,17 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>585</v>
+      </c>
       <c r="H25" s="8">
         <v>1</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3085,7 +3093,7 @@
         <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3103,10 +3111,10 @@
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3124,10 +3132,10 @@
         <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I32" s="5"/>
     </row>
@@ -3146,16 +3154,16 @@
         <v>88</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>584</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3191,10 +3199,10 @@
         <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I35" s="5"/>
     </row>
@@ -3207,10 +3215,10 @@
         <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -3226,13 +3234,13 @@
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G37" t="s">
         <v>574</v>
-      </c>
-      <c r="G37" t="s">
-        <v>575</v>
       </c>
       <c r="I37" s="5"/>
     </row>
@@ -3251,7 +3259,7 @@
         <v>91</v>
       </c>
       <c r="G38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3269,10 +3277,10 @@
         <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I39" s="5"/>
     </row>
@@ -3285,13 +3293,13 @@
         <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -3310,16 +3318,16 @@
         <v>147</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>586</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3358,7 +3366,7 @@
         <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G43" t="s">
         <v>99</v>
@@ -3382,7 +3390,7 @@
         <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G44" t="s">
         <v>101</v>
@@ -3418,10 +3426,10 @@
         <v>1</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3462,7 +3470,7 @@
         <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
@@ -3474,10 +3482,10 @@
         <v>183</v>
       </c>
       <c r="J47" t="s">
+        <v>418</v>
+      </c>
+      <c r="K47" t="s">
         <v>181</v>
-      </c>
-      <c r="K47" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3489,10 +3497,10 @@
         <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E48" t="s">
         <v>15</v>
@@ -3501,10 +3509,10 @@
         <v>183</v>
       </c>
       <c r="J48" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="K48" t="s">
-        <v>184</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3531,10 +3539,10 @@
         <v>183</v>
       </c>
       <c r="J49" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="K49" t="s">
-        <v>184</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3561,10 +3569,10 @@
         <v>183</v>
       </c>
       <c r="J50" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="K50" t="s">
-        <v>184</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3576,25 +3584,25 @@
         <v>111</v>
       </c>
       <c r="C51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" t="s">
         <v>198</v>
-      </c>
-      <c r="D51" t="s">
-        <v>199</v>
       </c>
       <c r="E51" t="s">
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I51" t="s">
         <v>183</v>
       </c>
       <c r="J51" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="K51" t="s">
-        <v>184</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3621,10 +3629,13 @@
         <v>1</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J52" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="K52" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3636,10 +3647,10 @@
         <v>115</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
@@ -3648,10 +3659,10 @@
         <v>183</v>
       </c>
       <c r="J53" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="K53" t="s">
-        <v>184</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3663,10 +3674,10 @@
         <v>115</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
@@ -3675,10 +3686,10 @@
         <v>183</v>
       </c>
       <c r="J54" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="K54" t="s">
-        <v>184</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3705,10 +3716,13 @@
         <v>1</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J55" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="K55" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3720,10 +3734,10 @@
         <v>116</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>406</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>407</v>
       </c>
       <c r="E56" t="s">
         <v>15</v>
@@ -3732,10 +3746,10 @@
         <v>183</v>
       </c>
       <c r="J56" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="K56" t="s">
-        <v>184</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3762,10 +3776,13 @@
         <v>1</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J57" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="K57" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3777,10 +3794,10 @@
         <v>117</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E58" t="s">
         <v>15</v>
@@ -3789,10 +3806,10 @@
         <v>183</v>
       </c>
       <c r="J58" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="K58" t="s">
-        <v>184</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3804,10 +3821,10 @@
         <v>117</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
@@ -3816,10 +3833,10 @@
         <v>183</v>
       </c>
       <c r="J59" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="K59" t="s">
-        <v>184</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3831,10 +3848,10 @@
         <v>117</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
@@ -3843,10 +3860,10 @@
         <v>183</v>
       </c>
       <c r="J60" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="K60" t="s">
-        <v>184</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3858,10 +3875,10 @@
         <v>117</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -3870,10 +3887,10 @@
         <v>183</v>
       </c>
       <c r="J61" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K61" t="s">
-        <v>184</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3885,10 +3902,10 @@
         <v>117</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E62" t="s">
         <v>15</v>
@@ -3897,10 +3914,10 @@
         <v>183</v>
       </c>
       <c r="J62" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K62" t="s">
-        <v>184</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3995,7 +4012,7 @@
         <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4003,7 +4020,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4029,7 +4046,7 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4041,10 +4058,10 @@
         <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -4056,19 +4073,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I5" t="s">
         <v>425</v>
-      </c>
-      <c r="I5" t="s">
-        <v>426</v>
       </c>
       <c r="J5" t="s">
         <v>125</v>
@@ -4080,19 +4097,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" t="s">
         <v>424</v>
       </c>
-      <c r="D6" t="s">
-        <v>422</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>425</v>
-      </c>
-      <c r="I6" t="s">
-        <v>426</v>
       </c>
       <c r="J6" t="s">
         <v>125</v>
@@ -4107,16 +4124,16 @@
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4125,19 +4142,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E8" t="s">
+        <v>424</v>
+      </c>
+      <c r="I8" t="s">
         <v>425</v>
-      </c>
-      <c r="I8" t="s">
-        <v>426</v>
       </c>
       <c r="J8" t="s">
         <v>134</v>
@@ -4152,16 +4169,16 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4170,19 +4187,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E10" t="s">
+        <v>424</v>
+      </c>
+      <c r="I10" t="s">
         <v>425</v>
-      </c>
-      <c r="I10" t="s">
-        <v>426</v>
       </c>
       <c r="J10" t="s">
         <v>139</v>
@@ -4197,16 +4214,16 @@
         <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4215,16 +4232,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" t="s">
         <v>436</v>
       </c>
-      <c r="C12" t="s">
-        <v>437</v>
-      </c>
       <c r="D12" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J12" t="s">
         <v>139</v>
@@ -4236,19 +4253,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E13" t="s">
+        <v>424</v>
+      </c>
+      <c r="I13" t="s">
         <v>425</v>
-      </c>
-      <c r="I13" t="s">
-        <v>426</v>
       </c>
       <c r="J13" t="s">
         <v>139</v>
@@ -4263,19 +4280,19 @@
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4284,22 +4301,22 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C15" t="s">
         <v>454</v>
       </c>
-      <c r="C15" t="s">
-        <v>455</v>
-      </c>
       <c r="D15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E15" t="s">
+        <v>424</v>
+      </c>
+      <c r="I15" t="s">
         <v>425</v>
       </c>
-      <c r="I15" t="s">
-        <v>426</v>
-      </c>
       <c r="J15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4311,16 +4328,16 @@
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4329,22 +4346,22 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>455</v>
+      </c>
+      <c r="C17" t="s">
         <v>456</v>
       </c>
-      <c r="C17" t="s">
-        <v>457</v>
-      </c>
       <c r="D17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I17" t="s">
         <v>425</v>
       </c>
-      <c r="I17" t="s">
-        <v>426</v>
-      </c>
       <c r="J17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4374,19 +4391,19 @@
         <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4395,22 +4412,22 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E20" t="s">
+        <v>424</v>
+      </c>
+      <c r="I20" t="s">
         <v>425</v>
       </c>
-      <c r="I20" t="s">
-        <v>426</v>
-      </c>
       <c r="J20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4419,22 +4436,22 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E21" t="s">
+        <v>424</v>
+      </c>
+      <c r="I21" t="s">
         <v>425</v>
       </c>
-      <c r="I21" t="s">
-        <v>426</v>
-      </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4443,22 +4460,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E22" t="s">
+        <v>424</v>
+      </c>
+      <c r="I22" t="s">
         <v>425</v>
       </c>
-      <c r="I22" t="s">
-        <v>426</v>
-      </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4467,22 +4484,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E23" t="s">
+        <v>424</v>
+      </c>
+      <c r="I23" t="s">
         <v>425</v>
       </c>
-      <c r="I23" t="s">
-        <v>426</v>
-      </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4503,7 +4520,7 @@
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4524,7 +4541,7 @@
         <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4536,16 +4553,16 @@
         <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4575,16 +4592,16 @@
         <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4599,7 +4616,7 @@
         <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
@@ -4614,16 +4631,16 @@
         <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D30" t="s">
         <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4644,10 +4661,10 @@
         <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4668,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4689,10 +4706,10 @@
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4704,22 +4721,22 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" t="s">
         <v>190</v>
       </c>
-      <c r="D34" t="s">
-        <v>191</v>
-      </c>
       <c r="E34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4731,7 +4748,7 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>78</v>
@@ -4740,7 +4757,7 @@
         <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4752,22 +4769,22 @@
         <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4788,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="J37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4803,13 +4820,13 @@
         <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4821,16 +4838,16 @@
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4842,16 +4859,16 @@
         <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4863,16 +4880,16 @@
         <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4881,19 +4898,19 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4905,16 +4922,16 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E43" t="s">
         <v>17</v>
       </c>
       <c r="J43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4923,19 +4940,19 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D44" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4944,19 +4961,19 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>474</v>
+      </c>
+      <c r="C45" t="s">
         <v>475</v>
       </c>
-      <c r="C45" t="s">
-        <v>476</v>
-      </c>
       <c r="D45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4973,8 +4990,8 @@
   <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M128" sqref="M128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5039,7 +5056,7 @@
         <v>149</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5054,7 +5071,7 @@
         <v>153</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>15</v>
@@ -5084,7 +5101,7 @@
         <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J3" t="s">
         <v>125</v>
@@ -5093,10 +5110,10 @@
         <v>125</v>
       </c>
       <c r="M3" t="s">
+        <v>418</v>
+      </c>
+      <c r="N3" t="s">
         <v>183</v>
-      </c>
-      <c r="N3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5195,7 +5212,7 @@
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J8" t="s">
         <v>125</v>
@@ -5204,10 +5221,10 @@
         <v>125</v>
       </c>
       <c r="M8" t="s">
+        <v>418</v>
+      </c>
+      <c r="N8" t="s">
         <v>183</v>
-      </c>
-      <c r="N8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5324,7 +5341,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>170</v>
@@ -5333,7 +5350,7 @@
         <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>134</v>
@@ -5342,10 +5359,10 @@
         <v>134</v>
       </c>
       <c r="M14" t="s">
+        <v>418</v>
+      </c>
+      <c r="N14" t="s">
         <v>183</v>
-      </c>
-      <c r="N14" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5446,7 +5463,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>173</v>
@@ -5455,7 +5472,7 @@
         <v>142</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>139</v>
@@ -5464,10 +5481,10 @@
         <v>139</v>
       </c>
       <c r="M19" t="s">
+        <v>418</v>
+      </c>
+      <c r="N19" t="s">
         <v>183</v>
-      </c>
-      <c r="N19" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5542,10 +5559,10 @@
         <v>152</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>15</v>
@@ -5558,7 +5575,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>176</v>
@@ -5567,7 +5584,7 @@
         <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>139</v>
@@ -5576,10 +5593,10 @@
         <v>179</v>
       </c>
       <c r="M24" t="s">
+        <v>418</v>
+      </c>
+      <c r="N24" t="s">
         <v>183</v>
-      </c>
-      <c r="N24" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5658,16 +5675,16 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>139</v>
@@ -5676,10 +5693,10 @@
         <v>139</v>
       </c>
       <c r="M28" t="s">
+        <v>418</v>
+      </c>
+      <c r="N28" t="s">
         <v>183</v>
-      </c>
-      <c r="N28" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5688,10 +5705,10 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E29" t="s">
         <v>120</v>
@@ -5706,13 +5723,13 @@
         <v>30</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" t="s">
         <v>208</v>
       </c>
-      <c r="C30" t="s">
-        <v>209</v>
-      </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
         <v>120</v>
@@ -5727,13 +5744,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" t="s">
         <v>209</v>
       </c>
-      <c r="C31" t="s">
-        <v>210</v>
-      </c>
       <c r="D31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
         <v>120</v>
@@ -5748,10 +5765,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" t="s">
         <v>210</v>
-      </c>
-      <c r="C32" t="s">
-        <v>211</v>
       </c>
       <c r="D32" t="s">
         <v>122</v>
@@ -5772,16 +5789,16 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>139</v>
@@ -5790,10 +5807,10 @@
         <v>139</v>
       </c>
       <c r="M33" t="s">
+        <v>418</v>
+      </c>
+      <c r="N33" t="s">
         <v>183</v>
-      </c>
-      <c r="N33" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5803,10 +5820,10 @@
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E34" t="s">
         <v>120</v>
@@ -5821,13 +5838,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>132</v>
@@ -5836,7 +5853,7 @@
         <v>139</v>
       </c>
       <c r="L35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5845,16 +5862,16 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" t="s">
         <v>203</v>
-      </c>
-      <c r="E36" t="s">
-        <v>204</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>139</v>
@@ -5863,10 +5880,10 @@
         <v>139</v>
       </c>
       <c r="M36" t="s">
+        <v>418</v>
+      </c>
+      <c r="N36" t="s">
         <v>183</v>
-      </c>
-      <c r="N36" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5876,10 +5893,10 @@
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E37" t="s">
         <v>120</v>
@@ -5894,13 +5911,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>132</v>
@@ -5909,7 +5926,7 @@
         <v>139</v>
       </c>
       <c r="L38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -5918,10 +5935,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>15</v>
@@ -5933,25 +5950,25 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K40" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M40" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="N40" t="s">
         <v>156</v>
@@ -5964,16 +5981,16 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E41" t="s">
         <v>120</v>
       </c>
       <c r="K41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5982,13 +5999,13 @@
         <v>42</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" t="s">
         <v>221</v>
       </c>
-      <c r="C42" t="s">
-        <v>222</v>
-      </c>
       <c r="D42" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E42" t="s">
         <v>120</v>
@@ -6003,13 +6020,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" t="s">
         <v>222</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>223</v>
-      </c>
-      <c r="D43" t="s">
-        <v>224</v>
       </c>
       <c r="E43" t="s">
         <v>120</v>
@@ -6024,19 +6041,19 @@
         <v>44</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E44" t="s">
         <v>120</v>
       </c>
       <c r="K44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -6045,10 +6062,10 @@
         <v>45</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>15</v>
@@ -6060,25 +6077,25 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J46" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="E46" t="s">
-        <v>204</v>
-      </c>
-      <c r="J46" t="s">
-        <v>236</v>
-      </c>
       <c r="K46" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M46" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="N46" t="s">
         <v>156</v>
@@ -6090,10 +6107,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D47" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E47" t="s">
         <v>120</v>
@@ -6102,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6111,19 +6128,19 @@
         <v>48</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D48" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E48" t="s">
         <v>120</v>
       </c>
       <c r="K48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6132,10 +6149,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D49" t="s">
         <v>122</v>
@@ -6156,25 +6173,25 @@
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M50" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="N50" t="s">
         <v>156</v>
@@ -6187,16 +6204,16 @@
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D51" t="s">
         <v>304</v>
-      </c>
-      <c r="D51" t="s">
-        <v>305</v>
       </c>
       <c r="E51" t="s">
         <v>120</v>
       </c>
       <c r="K51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6205,19 +6222,19 @@
         <v>52</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E52" t="s">
         <v>120</v>
       </c>
       <c r="K52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6226,19 +6243,19 @@
         <v>53</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>309</v>
-      </c>
       <c r="D53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E53" t="s">
         <v>120</v>
       </c>
       <c r="K53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -6265,22 +6282,22 @@
         <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M55" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="N55" t="s">
         <v>156</v>
@@ -6292,16 +6309,16 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E56" t="s">
         <v>120</v>
       </c>
       <c r="K56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6310,19 +6327,19 @@
         <v>57</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" t="s">
         <v>242</v>
       </c>
-      <c r="C57" t="s">
-        <v>243</v>
-      </c>
       <c r="D57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E57" t="s">
         <v>120</v>
       </c>
       <c r="K57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6331,19 +6348,19 @@
         <v>58</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" t="s">
         <v>243</v>
       </c>
-      <c r="C58" t="s">
-        <v>244</v>
-      </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E58" t="s">
         <v>120</v>
       </c>
       <c r="K58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -6367,25 +6384,25 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C60" t="s">
-        <v>249</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M60" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="N60" t="s">
         <v>156</v>
@@ -6403,16 +6420,16 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E61" t="s">
         <v>120</v>
       </c>
       <c r="K61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6421,19 +6438,19 @@
         <v>62</v>
       </c>
       <c r="B62" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" t="s">
         <v>252</v>
       </c>
-      <c r="C62" t="s">
-        <v>253</v>
-      </c>
       <c r="D62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E62" t="s">
         <v>120</v>
       </c>
       <c r="K62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6442,19 +6459,19 @@
         <v>63</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E63" t="s">
         <v>120</v>
       </c>
       <c r="K63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6463,25 +6480,25 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M64" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="N64" t="s">
         <v>156</v>
@@ -6499,16 +6516,16 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E65" t="s">
         <v>120</v>
       </c>
       <c r="K65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6517,19 +6534,19 @@
         <v>66</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" t="s">
         <v>263</v>
       </c>
-      <c r="C66" t="s">
-        <v>264</v>
-      </c>
       <c r="D66" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E66" t="s">
         <v>120</v>
       </c>
       <c r="K66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -6538,10 +6555,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>199</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>15</v>
@@ -6553,22 +6570,22 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="E68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K68" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6577,16 +6594,16 @@
         <v>69</v>
       </c>
       <c r="C69" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" t="s">
         <v>268</v>
       </c>
-      <c r="D69" t="s">
-        <v>269</v>
-      </c>
       <c r="E69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6595,19 +6612,19 @@
         <v>70</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D70" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6616,19 +6633,19 @@
         <v>71</v>
       </c>
       <c r="B71" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="D71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E71" t="s">
         <v>120</v>
       </c>
       <c r="K71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6637,19 +6654,19 @@
         <v>72</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>275</v>
-      </c>
       <c r="D72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E72" t="s">
         <v>120</v>
       </c>
       <c r="K72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -6662,7 +6679,7 @@
         <v>115</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>15</v>
@@ -6683,10 +6700,10 @@
         <v>115</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>15</v>
@@ -6699,25 +6716,25 @@
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M75" t="s">
+        <v>418</v>
+      </c>
+      <c r="N75" t="s">
         <v>183</v>
-      </c>
-      <c r="N75" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6727,16 +6744,16 @@
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E76" t="s">
         <v>120</v>
       </c>
       <c r="K76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6745,19 +6762,19 @@
         <v>77</v>
       </c>
       <c r="B77" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>319</v>
-      </c>
       <c r="D77" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E77" t="s">
         <v>120</v>
       </c>
       <c r="K77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6769,10 +6786,10 @@
         <v>115</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>15</v>
@@ -6784,28 +6801,28 @@
         <v>79</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M79" t="s">
+        <v>418</v>
+      </c>
+      <c r="N79" t="s">
         <v>183</v>
-      </c>
-      <c r="N79" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6815,16 +6832,16 @@
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E80" t="s">
         <v>120</v>
       </c>
       <c r="K80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6833,19 +6850,19 @@
         <v>81</v>
       </c>
       <c r="B81" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>325</v>
-      </c>
       <c r="D81" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E81" t="s">
         <v>120</v>
       </c>
       <c r="K81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6854,19 +6871,19 @@
         <v>82</v>
       </c>
       <c r="B82" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="D82" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>327</v>
       </c>
       <c r="E82" t="s">
         <v>120</v>
       </c>
       <c r="K82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -6900,10 +6917,10 @@
         <v>116</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
@@ -6915,10 +6932,10 @@
         <v>85</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E85" t="s">
         <v>15</v>
@@ -6930,16 +6947,16 @@
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="D86" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J86" t="s">
         <v>125</v>
@@ -6948,10 +6965,10 @@
         <v>125</v>
       </c>
       <c r="M86" t="s">
+        <v>418</v>
+      </c>
+      <c r="N86" t="s">
         <v>183</v>
-      </c>
-      <c r="N86" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6960,10 +6977,10 @@
         <v>87</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E87" t="s">
         <v>120</v>
@@ -6978,13 +6995,13 @@
         <v>88</v>
       </c>
       <c r="B88" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="D88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E88" t="s">
         <v>120</v>
@@ -6999,16 +7016,16 @@
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J89" t="s">
         <v>134</v>
@@ -7017,10 +7034,10 @@
         <v>134</v>
       </c>
       <c r="M89" t="s">
+        <v>418</v>
+      </c>
+      <c r="N89" t="s">
         <v>183</v>
-      </c>
-      <c r="N89" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7029,10 +7046,10 @@
         <v>90</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E90" t="s">
         <v>120</v>
@@ -7047,13 +7064,13 @@
         <v>91</v>
       </c>
       <c r="B91" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>297</v>
-      </c>
       <c r="D91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E91" t="s">
         <v>120</v>
@@ -7068,28 +7085,28 @@
         <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M92" t="s">
+        <v>418</v>
+      </c>
+      <c r="N92" t="s">
         <v>183</v>
-      </c>
-      <c r="N92" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7098,16 +7115,16 @@
         <v>93</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="K93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7116,19 +7133,19 @@
         <v>94</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D94" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E94" t="s">
         <v>120</v>
       </c>
       <c r="K94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -7162,10 +7179,10 @@
         <v>117</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>15</v>
@@ -7177,25 +7194,25 @@
         <v>97</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J97" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M97" t="s">
+        <v>418</v>
+      </c>
+      <c r="N97" t="s">
         <v>183</v>
-      </c>
-      <c r="N97" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7204,16 +7221,16 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E98" t="s">
         <v>120</v>
       </c>
       <c r="K98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7222,19 +7239,19 @@
         <v>99</v>
       </c>
       <c r="B99" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C99" t="s">
         <v>345</v>
       </c>
-      <c r="C99" t="s">
-        <v>346</v>
-      </c>
       <c r="D99" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E99" t="s">
         <v>120</v>
       </c>
       <c r="K99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7243,19 +7260,19 @@
         <v>100</v>
       </c>
       <c r="B100" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C100" t="s">
         <v>346</v>
       </c>
-      <c r="C100" t="s">
-        <v>347</v>
-      </c>
       <c r="D100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E100" t="s">
         <v>120</v>
       </c>
       <c r="K100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7264,19 +7281,19 @@
         <v>101</v>
       </c>
       <c r="B101" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C101" t="s">
         <v>347</v>
       </c>
-      <c r="C101" t="s">
-        <v>348</v>
-      </c>
       <c r="D101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E101" t="s">
         <v>120</v>
       </c>
       <c r="K101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7288,10 +7305,10 @@
         <v>117</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>15</v>
@@ -7303,25 +7320,25 @@
         <v>103</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K103" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M103" t="s">
+        <v>418</v>
+      </c>
+      <c r="N103" t="s">
         <v>183</v>
-      </c>
-      <c r="N103" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7330,16 +7347,16 @@
         <v>104</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D104" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E104" t="s">
         <v>120</v>
       </c>
       <c r="K104" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7348,13 +7365,13 @@
         <v>105</v>
       </c>
       <c r="B105" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>351</v>
-      </c>
       <c r="D105" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E105" t="s">
         <v>120</v>
@@ -7369,19 +7386,19 @@
         <v>106</v>
       </c>
       <c r="B106" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C106" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>352</v>
-      </c>
       <c r="D106" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E106" t="s">
         <v>120</v>
       </c>
       <c r="K106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7390,19 +7407,19 @@
         <v>107</v>
       </c>
       <c r="B107" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>353</v>
-      </c>
       <c r="D107" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E107" t="s">
         <v>120</v>
       </c>
       <c r="K107" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7411,19 +7428,19 @@
         <v>108</v>
       </c>
       <c r="B108" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>354</v>
-      </c>
       <c r="D108" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E108" t="s">
         <v>120</v>
       </c>
       <c r="K108" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7435,10 +7452,10 @@
         <v>117</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E109" s="17" t="s">
         <v>15</v>
@@ -7450,28 +7467,28 @@
         <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E110" t="s">
+        <v>203</v>
+      </c>
+      <c r="J110" t="s">
+        <v>225</v>
+      </c>
+      <c r="K110" t="s">
         <v>358</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="E110" t="s">
-        <v>204</v>
-      </c>
-      <c r="J110" t="s">
-        <v>226</v>
-      </c>
-      <c r="K110" t="s">
-        <v>359</v>
-      </c>
       <c r="M110" t="s">
+        <v>418</v>
+      </c>
+      <c r="N110" t="s">
         <v>183</v>
-      </c>
-      <c r="N110" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7480,16 +7497,16 @@
         <v>111</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D111" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E111" t="s">
         <v>120</v>
       </c>
       <c r="K111" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7498,16 +7515,16 @@
         <v>112</v>
       </c>
       <c r="C112" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D112" t="s">
         <v>362</v>
-      </c>
-      <c r="D112" t="s">
-        <v>363</v>
       </c>
       <c r="E112" t="s">
         <v>120</v>
       </c>
       <c r="K112" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7516,16 +7533,16 @@
         <v>113</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D113" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E113" t="s">
         <v>120</v>
       </c>
       <c r="K113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7534,16 +7551,16 @@
         <v>114</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D114" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E114" t="s">
         <v>120</v>
       </c>
       <c r="K114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7552,28 +7569,28 @@
         <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="D115" s="11" t="s">
-        <v>385</v>
-      </c>
       <c r="E115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K115" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M115" t="s">
+        <v>418</v>
+      </c>
+      <c r="N115" t="s">
         <v>183</v>
-      </c>
-      <c r="N115" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7582,16 +7599,16 @@
         <v>116</v>
       </c>
       <c r="C116" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D116" t="s">
         <v>386</v>
-      </c>
-      <c r="D116" t="s">
-        <v>387</v>
       </c>
       <c r="E116" t="s">
         <v>120</v>
       </c>
       <c r="K116" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7600,19 +7617,19 @@
         <v>117</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D117" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E117" t="s">
         <v>120</v>
       </c>
       <c r="K117" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7621,19 +7638,19 @@
         <v>118</v>
       </c>
       <c r="B118" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>391</v>
-      </c>
       <c r="D118" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E118" t="s">
         <v>120</v>
       </c>
       <c r="K118" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7645,10 +7662,10 @@
         <v>117</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>15</v>
@@ -7660,28 +7677,28 @@
         <v>120</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J120" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K120" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M120" t="s">
+        <v>418</v>
+      </c>
+      <c r="N120" t="s">
         <v>183</v>
-      </c>
-      <c r="N120" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7690,16 +7707,16 @@
         <v>121</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D121" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E121" t="s">
         <v>120</v>
       </c>
       <c r="K121" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7708,19 +7725,19 @@
         <v>122</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D122" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E122" t="s">
         <v>120</v>
       </c>
       <c r="K122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7729,19 +7746,19 @@
         <v>123</v>
       </c>
       <c r="B123" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>380</v>
-      </c>
       <c r="D123" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E123" t="s">
         <v>120</v>
       </c>
       <c r="K123" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7750,19 +7767,19 @@
         <v>124</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D124" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E124" t="s">
         <v>120</v>
       </c>
       <c r="K124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7774,10 +7791,10 @@
         <v>117</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>15</v>
@@ -7789,28 +7806,28 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="E126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J126" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K126" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M126" t="s">
+        <v>418</v>
+      </c>
+      <c r="N126" t="s">
         <v>183</v>
-      </c>
-      <c r="N126" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="127" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7819,16 +7836,16 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
+        <v>395</v>
+      </c>
+      <c r="D127" t="s">
         <v>396</v>
-      </c>
-      <c r="D127" t="s">
-        <v>397</v>
       </c>
       <c r="E127" t="s">
         <v>120</v>
       </c>
       <c r="K127" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7837,13 +7854,13 @@
         <v>128</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C128" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D128" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E128" t="s">
         <v>120</v>
@@ -7852,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7861,13 +7878,13 @@
         <v>129</v>
       </c>
       <c r="B129" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C129" t="s">
         <v>400</v>
       </c>
-      <c r="C129" t="s">
-        <v>401</v>
-      </c>
       <c r="D129" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E129" t="s">
         <v>120</v>
@@ -7876,7 +7893,7 @@
         <v>2</v>
       </c>
       <c r="K129" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -7893,7 +7910,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7956,7 +7973,7 @@
         <v>149</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -8036,15 +8053,17 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8056,10 +8075,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -8071,13 +8090,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" t="s">
         <v>485</v>
       </c>
-      <c r="C6" t="s">
-        <v>486</v>
-      </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E6" t="s">
         <v>123</v>
@@ -8092,10 +8111,10 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>123</v>
@@ -8107,10 +8126,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C8" t="s">
         <v>487</v>
-      </c>
-      <c r="C8" t="s">
-        <v>488</v>
       </c>
       <c r="D8" t="s">
         <v>125</v>
@@ -8128,10 +8147,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D9" t="s">
         <v>134</v>
@@ -8149,10 +8168,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D10" t="s">
         <v>139</v>
@@ -8170,13 +8189,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
         <v>123</v>
@@ -8191,13 +8210,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
         <v>123</v>
@@ -8212,13 +8231,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E13" t="s">
         <v>123</v>
@@ -8245,6 +8264,9 @@
         <v>58</v>
       </c>
       <c r="M14" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8257,19 +8279,19 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8281,19 +8303,19 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D16" t="s">
+        <v>497</v>
+      </c>
+      <c r="E16" t="s">
         <v>498</v>
-      </c>
-      <c r="E16" t="s">
-        <v>499</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8305,19 +8327,19 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8329,16 +8351,16 @@
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8350,19 +8372,19 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8374,19 +8396,19 @@
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8398,19 +8420,19 @@
         <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
       <c r="O21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8422,16 +8444,16 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8452,6 +8474,9 @@
         <v>16</v>
       </c>
       <c r="M23" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="N23" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8464,16 +8489,16 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E24" t="s">
         <v>515</v>
       </c>
-      <c r="E24" t="s">
-        <v>516</v>
-      </c>
       <c r="O24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8485,16 +8510,16 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8506,16 +8531,16 @@
         <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8527,16 +8552,16 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8548,16 +8573,16 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -8578,6 +8603,9 @@
         <v>73</v>
       </c>
       <c r="M29" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="N29" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8590,16 +8618,16 @@
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E30" t="s">
         <v>73</v>
       </c>
       <c r="O30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8611,10 +8639,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E31" t="s">
         <v>73</v>
@@ -8626,19 +8654,19 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
+        <v>541</v>
+      </c>
+      <c r="C32" t="s">
         <v>542</v>
       </c>
-      <c r="C32" t="s">
-        <v>543</v>
-      </c>
       <c r="D32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
       </c>
       <c r="O32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8647,19 +8675,19 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8668,19 +8696,19 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
       </c>
       <c r="O34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8692,16 +8720,16 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
       </c>
       <c r="O35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8713,16 +8741,16 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E36" t="s">
         <v>73</v>
       </c>
       <c r="O36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -8737,13 +8765,13 @@
         <v>62</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E37" t="s">
         <v>59</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>151</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8755,10 +8783,10 @@
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E38" t="s">
         <v>59</v>
@@ -8771,13 +8799,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C39" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D39" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M39" s="10"/>
     </row>
@@ -8790,10 +8818,10 @@
         <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M40" s="10"/>
     </row>
@@ -8803,19 +8831,19 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D41" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E41" t="s">
         <v>59</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8824,19 +8852,19 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C42" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E42" t="s">
         <v>59</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8845,19 +8873,19 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E43" t="s">
         <v>59</v>
       </c>
       <c r="O43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/ea1.xlsx
+++ b/ea1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="root" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="586">
   <si>
     <t>Number</t>
   </si>
@@ -1259,12 +1259,6 @@
     <t>vad7</t>
   </si>
   <si>
-    <t>Обеспечение hr-ресурсами (2)</t>
-  </si>
-  <si>
-    <t>Обеспечение МТО-ресурсами (2)</t>
-  </si>
-  <si>
     <t>Процессы нормативного обеспечения</t>
   </si>
   <si>
@@ -1791,6 +1785,9 @@
   </si>
   <si>
     <t>service.regulator</t>
+  </si>
+  <si>
+    <t>Обеспечение МТО-ресурсами</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2213,7 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -2278,7 +2275,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -2623,7 +2620,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -2665,10 +2662,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2701,10 +2698,10 @@
         <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2737,7 +2734,7 @@
         <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K17" t="s">
         <v>183</v>
@@ -2833,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2866,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2896,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2926,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2959,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2979,16 +2976,16 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H25" s="8">
         <v>1</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3154,16 +3151,16 @@
         <v>88</v>
       </c>
       <c r="G33" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3215,10 +3212,10 @@
         <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -3234,13 +3231,13 @@
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G37" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I37" s="5"/>
     </row>
@@ -3293,13 +3290,13 @@
         <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D40" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G40" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -3318,16 +3315,16 @@
         <v>147</v>
       </c>
       <c r="G41" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J41" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3366,7 +3363,7 @@
         <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G43" t="s">
         <v>99</v>
@@ -3390,7 +3387,7 @@
         <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G44" t="s">
         <v>101</v>
@@ -3426,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J45" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3482,7 +3479,7 @@
         <v>183</v>
       </c>
       <c r="J47" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K47" t="s">
         <v>181</v>
@@ -3509,7 +3506,7 @@
         <v>183</v>
       </c>
       <c r="J48" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K48" t="s">
         <v>403</v>
@@ -3539,7 +3536,7 @@
         <v>183</v>
       </c>
       <c r="J49" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K49" t="s">
         <v>402</v>
@@ -3569,7 +3566,7 @@
         <v>183</v>
       </c>
       <c r="J50" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K50" t="s">
         <v>402</v>
@@ -3599,7 +3596,7 @@
         <v>183</v>
       </c>
       <c r="J51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K51" t="s">
         <v>402</v>
@@ -3629,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J52" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K52" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3659,7 +3656,7 @@
         <v>183</v>
       </c>
       <c r="J53" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K53" t="s">
         <v>404</v>
@@ -3686,7 +3683,7 @@
         <v>183</v>
       </c>
       <c r="J54" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K54" t="s">
         <v>404</v>
@@ -3716,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3746,7 +3743,7 @@
         <v>183</v>
       </c>
       <c r="J56" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K56" t="s">
         <v>407</v>
@@ -3776,13 +3773,13 @@
         <v>1</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J57" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K57" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3806,7 +3803,7 @@
         <v>183</v>
       </c>
       <c r="J58" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K58" t="s">
         <v>408</v>
@@ -3833,7 +3830,7 @@
         <v>183</v>
       </c>
       <c r="J59" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K59" t="s">
         <v>408</v>
@@ -3851,7 +3848,7 @@
         <v>356</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
@@ -3860,7 +3857,7 @@
         <v>183</v>
       </c>
       <c r="J60" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K60" t="s">
         <v>408</v>
@@ -3878,7 +3875,7 @@
         <v>369</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -3887,10 +3884,10 @@
         <v>183</v>
       </c>
       <c r="J61" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K61" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3905,7 +3902,7 @@
         <v>392</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E62" t="s">
         <v>15</v>
@@ -3914,10 +3911,10 @@
         <v>183</v>
       </c>
       <c r="J62" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K62" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4012,7 +4009,7 @@
         <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4020,7 +4017,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4046,7 +4043,7 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4076,16 +4073,16 @@
         <v>194</v>
       </c>
       <c r="C5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" t="s">
         <v>422</v>
       </c>
-      <c r="D5" t="s">
-        <v>429</v>
-      </c>
-      <c r="E5" t="s">
-        <v>424</v>
-      </c>
       <c r="I5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J5" t="s">
         <v>125</v>
@@ -4100,16 +4097,16 @@
         <v>194</v>
       </c>
       <c r="C6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" t="s">
+        <v>422</v>
+      </c>
+      <c r="I6" t="s">
         <v>423</v>
-      </c>
-      <c r="D6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E6" t="s">
-        <v>424</v>
-      </c>
-      <c r="I6" t="s">
-        <v>425</v>
       </c>
       <c r="J6" t="s">
         <v>125</v>
@@ -4124,16 +4121,16 @@
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4142,19 +4139,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J8" t="s">
         <v>134</v>
@@ -4169,16 +4166,16 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4187,19 +4184,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J10" t="s">
         <v>139</v>
@@ -4214,16 +4211,16 @@
         <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4232,16 +4229,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J12" t="s">
         <v>139</v>
@@ -4253,19 +4250,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" t="s">
         <v>435</v>
       </c>
-      <c r="C13" t="s">
-        <v>437</v>
-      </c>
       <c r="D13" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J13" t="s">
         <v>139</v>
@@ -4280,19 +4277,19 @@
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4301,19 +4298,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J15" t="s">
         <v>235</v>
@@ -4328,16 +4325,16 @@
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4346,19 +4343,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J17" t="s">
         <v>225</v>
@@ -4400,10 +4397,10 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4415,16 +4412,16 @@
         <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J20" t="s">
         <v>225</v>
@@ -4439,16 +4436,16 @@
         <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J21" t="s">
         <v>225</v>
@@ -4463,16 +4460,16 @@
         <v>196</v>
       </c>
       <c r="C22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J22" t="s">
         <v>225</v>
@@ -4487,16 +4484,16 @@
         <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J23" t="s">
         <v>225</v>
@@ -4520,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4541,7 +4538,7 @@
         <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4553,13 +4550,13 @@
         <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D26" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E26" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J26" t="s">
         <v>253</v>
@@ -4592,13 +4589,13 @@
         <v>100</v>
       </c>
       <c r="C28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D28" t="s">
         <v>462</v>
       </c>
-      <c r="D28" t="s">
-        <v>464</v>
-      </c>
       <c r="E28" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J28" t="s">
         <v>253</v>
@@ -4616,7 +4613,7 @@
         <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
@@ -4631,13 +4628,13 @@
         <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D30" t="s">
         <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J30" t="s">
         <v>253</v>
@@ -4661,10 +4658,10 @@
         <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J31" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4685,7 +4682,7 @@
         <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4706,10 +4703,10 @@
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4727,13 +4724,13 @@
         <v>190</v>
       </c>
       <c r="E34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J34" t="s">
         <v>225</v>
@@ -4757,7 +4754,7 @@
         <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4775,13 +4772,13 @@
         <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J36" t="s">
         <v>225</v>
@@ -4805,7 +4802,7 @@
         <v>17</v>
       </c>
       <c r="J37" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4826,7 +4823,7 @@
         <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4838,13 +4835,13 @@
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D39" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E39" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J39" t="s">
         <v>225</v>
@@ -4859,13 +4856,13 @@
         <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D40" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J40" t="s">
         <v>235</v>
@@ -4889,7 +4886,7 @@
         <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4901,13 +4898,13 @@
         <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J42" t="s">
         <v>253</v>
@@ -4931,7 +4928,7 @@
         <v>17</v>
       </c>
       <c r="J43" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4943,13 +4940,13 @@
         <v>188</v>
       </c>
       <c r="C44" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D44" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J44" t="s">
         <v>373</v>
@@ -4961,16 +4958,16 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C45" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E45" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J45" t="s">
         <v>225</v>
@@ -4989,9 +4986,9 @@
   </sheetPr>
   <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M128" sqref="M128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5110,7 +5107,7 @@
         <v>125</v>
       </c>
       <c r="M3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N3" t="s">
         <v>183</v>
@@ -5221,7 +5218,7 @@
         <v>125</v>
       </c>
       <c r="M8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N8" t="s">
         <v>183</v>
@@ -5359,7 +5356,7 @@
         <v>134</v>
       </c>
       <c r="M14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N14" t="s">
         <v>183</v>
@@ -5481,7 +5478,7 @@
         <v>139</v>
       </c>
       <c r="M19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N19" t="s">
         <v>183</v>
@@ -5593,7 +5590,7 @@
         <v>179</v>
       </c>
       <c r="M24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N24" t="s">
         <v>183</v>
@@ -5693,7 +5690,7 @@
         <v>139</v>
       </c>
       <c r="M28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N28" t="s">
         <v>183</v>
@@ -5807,7 +5804,7 @@
         <v>139</v>
       </c>
       <c r="M33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N33" t="s">
         <v>183</v>
@@ -5880,7 +5877,7 @@
         <v>139</v>
       </c>
       <c r="M36" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N36" t="s">
         <v>183</v>
@@ -5965,10 +5962,10 @@
         <v>225</v>
       </c>
       <c r="K40" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M40" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N40" t="s">
         <v>156</v>
@@ -6083,7 +6080,7 @@
         <v>230</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E46" t="s">
         <v>203</v>
@@ -6092,10 +6089,10 @@
         <v>235</v>
       </c>
       <c r="K46" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N46" t="s">
         <v>156</v>
@@ -6110,7 +6107,7 @@
         <v>231</v>
       </c>
       <c r="D47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E47" t="s">
         <v>120</v>
@@ -6134,7 +6131,7 @@
         <v>232</v>
       </c>
       <c r="D48" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E48" t="s">
         <v>120</v>
@@ -6179,7 +6176,7 @@
         <v>302</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E50" t="s">
         <v>203</v>
@@ -6188,10 +6185,10 @@
         <v>225</v>
       </c>
       <c r="K50" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M50" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N50" t="s">
         <v>156</v>
@@ -6297,7 +6294,7 @@
         <v>244</v>
       </c>
       <c r="M55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N55" t="s">
         <v>156</v>
@@ -6402,7 +6399,7 @@
         <v>253</v>
       </c>
       <c r="M60" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N60" t="s">
         <v>156</v>
@@ -6498,7 +6495,7 @@
         <v>253</v>
       </c>
       <c r="M64" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N64" t="s">
         <v>156</v>
@@ -6585,7 +6582,7 @@
         <v>225</v>
       </c>
       <c r="K68" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6731,7 +6728,7 @@
         <v>253</v>
       </c>
       <c r="M75" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N75" t="s">
         <v>183</v>
@@ -6819,7 +6816,7 @@
         <v>225</v>
       </c>
       <c r="M79" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N79" t="s">
         <v>183</v>
@@ -6965,7 +6962,7 @@
         <v>125</v>
       </c>
       <c r="M86" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N86" t="s">
         <v>183</v>
@@ -7034,7 +7031,7 @@
         <v>134</v>
       </c>
       <c r="M89" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N89" t="s">
         <v>183</v>
@@ -7103,7 +7100,7 @@
         <v>235</v>
       </c>
       <c r="M92" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N92" t="s">
         <v>183</v>
@@ -7197,7 +7194,7 @@
         <v>332</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>409</v>
+        <v>330</v>
       </c>
       <c r="E97" t="s">
         <v>203</v>
@@ -7209,7 +7206,7 @@
         <v>244</v>
       </c>
       <c r="M97" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N97" t="s">
         <v>183</v>
@@ -7323,7 +7320,7 @@
         <v>348</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>410</v>
+        <v>585</v>
       </c>
       <c r="E103" t="s">
         <v>203</v>
@@ -7335,7 +7332,7 @@
         <v>355</v>
       </c>
       <c r="M103" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N103" t="s">
         <v>183</v>
@@ -7455,7 +7452,7 @@
         <v>356</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E109" s="17" t="s">
         <v>15</v>
@@ -7485,7 +7482,7 @@
         <v>358</v>
       </c>
       <c r="M110" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N110" t="s">
         <v>183</v>
@@ -7587,7 +7584,7 @@
         <v>358</v>
       </c>
       <c r="M115" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N115" t="s">
         <v>183</v>
@@ -7665,7 +7662,7 @@
         <v>369</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>15</v>
@@ -7683,7 +7680,7 @@
         <v>370</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E120" t="s">
         <v>203</v>
@@ -7692,10 +7689,10 @@
         <v>225</v>
       </c>
       <c r="K120" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M120" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N120" t="s">
         <v>183</v>
@@ -7794,7 +7791,7 @@
         <v>392</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>15</v>
@@ -7806,7 +7803,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>393</v>
@@ -7824,7 +7821,7 @@
         <v>244</v>
       </c>
       <c r="M126" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N126" t="s">
         <v>183</v>
@@ -7973,7 +7970,7 @@
         <v>149</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -8053,13 +8050,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>151</v>
@@ -8075,10 +8072,10 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -8090,13 +8087,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E6" t="s">
         <v>123</v>
@@ -8111,7 +8108,7 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>225</v>
@@ -8126,10 +8123,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D8" t="s">
         <v>125</v>
@@ -8147,10 +8144,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" t="s">
         <v>486</v>
-      </c>
-      <c r="C9" t="s">
-        <v>488</v>
       </c>
       <c r="D9" t="s">
         <v>134</v>
@@ -8168,10 +8165,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D10" t="s">
         <v>139</v>
@@ -8189,10 +8186,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D11" t="s">
         <v>235</v>
@@ -8210,10 +8207,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D12" t="s">
         <v>253</v>
@@ -8231,10 +8228,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
         <v>373</v>
@@ -8264,7 +8261,7 @@
         <v>58</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>151</v>
@@ -8279,19 +8276,19 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
+        <v>492</v>
+      </c>
+      <c r="D15" t="s">
         <v>494</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>496</v>
-      </c>
-      <c r="E15" t="s">
-        <v>498</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8303,19 +8300,19 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8327,19 +8324,19 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" t="s">
         <v>504</v>
       </c>
-      <c r="D17" t="s">
-        <v>506</v>
-      </c>
       <c r="E17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8351,16 +8348,16 @@
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8372,19 +8369,19 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8396,19 +8393,19 @@
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D20" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8420,19 +8417,19 @@
         <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
       <c r="O21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8444,16 +8441,16 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8474,7 +8471,7 @@
         <v>16</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>151</v>
@@ -8489,16 +8486,16 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
+        <v>510</v>
+      </c>
+      <c r="D24" t="s">
         <v>512</v>
       </c>
-      <c r="D24" t="s">
-        <v>514</v>
-      </c>
       <c r="E24" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O24" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8510,16 +8507,16 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D25" t="s">
+        <v>511</v>
+      </c>
+      <c r="E25" t="s">
         <v>513</v>
       </c>
-      <c r="E25" t="s">
-        <v>515</v>
-      </c>
       <c r="O25" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8531,16 +8528,16 @@
         <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D26" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O26" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8552,16 +8549,16 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8573,16 +8570,16 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O28" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -8603,7 +8600,7 @@
         <v>73</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>151</v>
@@ -8618,16 +8615,16 @@
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D30" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E30" t="s">
         <v>73</v>
       </c>
       <c r="O30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8639,10 +8636,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E31" t="s">
         <v>73</v>
@@ -8654,19 +8651,19 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C32" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D32" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
       </c>
       <c r="O32" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8675,19 +8672,19 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>539</v>
+      </c>
+      <c r="C33" t="s">
+        <v>547</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>541</v>
-      </c>
-      <c r="C33" t="s">
-        <v>549</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>543</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8696,19 +8693,19 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C34" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
       </c>
       <c r="O34" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8720,16 +8717,16 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
       </c>
       <c r="O35" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8741,16 +8738,16 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
+        <v>573</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>575</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>577</v>
       </c>
       <c r="E36" t="s">
         <v>73</v>
       </c>
       <c r="O36" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -8771,7 +8768,7 @@
         <v>59</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8783,10 +8780,10 @@
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E38" t="s">
         <v>59</v>
@@ -8799,13 +8796,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>558</v>
+      </c>
+      <c r="C39" t="s">
         <v>560</v>
       </c>
-      <c r="C39" t="s">
-        <v>562</v>
-      </c>
       <c r="D39" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M39" s="10"/>
     </row>
@@ -8818,10 +8815,10 @@
         <v>62</v>
       </c>
       <c r="C40" t="s">
+        <v>559</v>
+      </c>
+      <c r="D40" t="s">
         <v>561</v>
-      </c>
-      <c r="D40" t="s">
-        <v>563</v>
       </c>
       <c r="M40" s="10"/>
     </row>
@@ -8831,19 +8828,19 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C41" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E41" t="s">
         <v>59</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8852,19 +8849,19 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C42" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D42" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E42" t="s">
         <v>59</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8873,19 +8870,19 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C43" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E43" t="s">
         <v>59</v>
       </c>
       <c r="O43" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/ea1.xlsx
+++ b/ea1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="root" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="586">
   <si>
     <t>Number</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Материнские</t>
   </si>
   <si>
-    <t>Собственник</t>
-  </si>
-  <si>
     <t>Общее собрание</t>
   </si>
   <si>
@@ -98,15 +95,6 @@
     <t>Взаимодействующие</t>
   </si>
   <si>
-    <t>Регуляторы</t>
-  </si>
-  <si>
-    <t>Поставщики</t>
-  </si>
-  <si>
-    <t>Клиенты</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
@@ -1788,6 +1776,18 @@
   </si>
   <si>
     <t>Обеспечение МТО-ресурсами</t>
+  </si>
+  <si>
+    <t>Клиенты (члены СНТ)</t>
+  </si>
+  <si>
+    <t>Собственник (общее собрание)</t>
+  </si>
+  <si>
+    <t>Регуляторы (ФНС и т.п.)</t>
+  </si>
+  <si>
+    <t>Поставщики (ЭнергоСбыт и т.п.)</t>
   </si>
 </sst>
 </file>
@@ -2213,9 +2213,9 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2254,16 +2254,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2272,16 +2272,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2290,28 +2290,28 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2320,28 +2320,28 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>583</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2350,28 +2350,28 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2380,16 +2380,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2407,16 +2407,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2434,28 +2434,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2464,28 +2464,28 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>582</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2494,28 +2494,28 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>584</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2524,28 +2524,28 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>585</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2554,28 +2554,28 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2584,28 +2584,28 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
       </c>
       <c r="F13">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2614,16 +2614,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2641,31 +2641,31 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J15" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2674,34 +2674,34 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2710,34 +2710,34 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2746,28 +2746,28 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2776,22 +2776,22 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2806,22 +2806,22 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2839,22 +2839,22 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2872,28 +2872,28 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2902,28 +2902,28 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2932,22 +2932,22 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2956,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2965,27 +2965,27 @@
         <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H25" s="8">
         <v>1</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J25" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2994,16 +2994,16 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s">
-        <v>79</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3018,13 +3018,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3032,6 +3032,9 @@
       <c r="I27" s="5">
         <v>3</v>
       </c>
+      <c r="J27" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -3039,13 +3042,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3053,6 +3056,9 @@
       <c r="I28" s="5">
         <v>3</v>
       </c>
+      <c r="J28" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -3060,16 +3066,16 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3084,13 +3090,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3098,6 +3104,9 @@
       <c r="I30" s="5">
         <v>3</v>
       </c>
+      <c r="J30" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -3105,13 +3114,13 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3119,6 +3128,9 @@
       <c r="I31" s="5">
         <v>3</v>
       </c>
+      <c r="J31" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -3126,15 +3138,18 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I32" s="5"/>
+      <c r="J32" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -3142,25 +3157,25 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J33" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3169,16 +3184,16 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3193,13 +3208,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I35" s="5"/>
     </row>
@@ -3209,16 +3224,16 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -3228,16 +3243,16 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
+        <v>563</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="G37" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="I37" s="5"/>
     </row>
@@ -3247,16 +3262,16 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
         <v>89</v>
       </c>
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3271,13 +3286,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I39" s="5"/>
     </row>
@@ -3287,16 +3302,16 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
+        <v>564</v>
+      </c>
+      <c r="D40" t="s">
+        <v>562</v>
+      </c>
+      <c r="G40" t="s">
         <v>568</v>
-      </c>
-      <c r="D40" t="s">
-        <v>566</v>
-      </c>
-      <c r="G40" t="s">
-        <v>572</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -3306,25 +3321,25 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G41" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J41" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3333,16 +3348,16 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3350,6 +3365,9 @@
       <c r="I42" s="5">
         <v>3</v>
       </c>
+      <c r="J42" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -3357,16 +3375,16 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
         <v>96</v>
       </c>
-      <c r="C43" t="s">
-        <v>100</v>
-      </c>
       <c r="D43" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -3374,6 +3392,9 @@
       <c r="I43" s="5">
         <v>3</v>
       </c>
+      <c r="J43" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="44" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -3381,16 +3402,16 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -3398,6 +3419,9 @@
       <c r="I44" s="5">
         <v>3</v>
       </c>
+      <c r="J44" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -3405,28 +3429,28 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J45" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3435,22 +3459,22 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -3461,28 +3485,28 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J47" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K47" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3491,25 +3515,25 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J48" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K48" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3518,28 +3542,28 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J49" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K49" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3548,28 +3572,28 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J50" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K50" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3578,28 +3602,28 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I51" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J51" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K51" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3608,31 +3632,31 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J52" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K52" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3641,25 +3665,25 @@
         <v>53</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J53" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K53" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3668,25 +3692,25 @@
         <v>54</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J54" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K54" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3695,31 +3719,31 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J55" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K55" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3728,25 +3752,25 @@
         <v>56</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J56" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K56" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3755,31 +3779,31 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
         <v>26</v>
-      </c>
-      <c r="C57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J57" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K57" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3788,25 +3812,25 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J58" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K58" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3815,25 +3839,25 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J59" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K59" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3842,25 +3866,25 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J60" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K60" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3869,25 +3893,25 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J61" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K61" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3896,25 +3920,25 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J62" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K62" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3932,8 +3956,8 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3973,28 +3997,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4003,13 +4027,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4017,7 +4041,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4031,19 +4055,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>455</v>
+        <v>451</v>
+      </c>
+      <c r="M3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4052,16 +4079,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4070,22 +4097,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4094,22 +4121,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" t="s">
+        <v>418</v>
+      </c>
+      <c r="I6" t="s">
         <v>419</v>
       </c>
-      <c r="E6" t="s">
-        <v>422</v>
-      </c>
-      <c r="I6" t="s">
-        <v>423</v>
-      </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4118,19 +4145,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4139,22 +4166,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4163,19 +4190,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4184,22 +4211,22 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" t="s">
         <v>432</v>
       </c>
-      <c r="C10" t="s">
-        <v>436</v>
-      </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E10" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4208,19 +4235,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4229,19 +4256,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I12" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4250,22 +4277,22 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C13" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I13" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4274,22 +4301,22 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4298,22 +4325,22 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D15" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4322,655 +4349,673 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>449</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <f>ROW()</f>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" t="s">
+        <v>418</v>
+      </c>
+      <c r="I17" t="s">
+        <v>419</v>
+      </c>
+      <c r="J17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <f>ROW()</f>
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <f>ROW()</f>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>566</v>
+      </c>
+      <c r="J19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <f>ROW()</f>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" t="s">
+        <v>438</v>
+      </c>
+      <c r="E20" t="s">
+        <v>418</v>
+      </c>
+      <c r="I20" t="s">
+        <v>419</v>
+      </c>
+      <c r="J20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <f>ROW()</f>
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" t="s">
+        <v>418</v>
+      </c>
+      <c r="I21" t="s">
+        <v>419</v>
+      </c>
+      <c r="J21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <f>ROW()</f>
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D22" t="s">
+        <v>440</v>
+      </c>
+      <c r="E22" t="s">
+        <v>418</v>
+      </c>
+      <c r="I22" t="s">
+        <v>419</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <f>ROW()</f>
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" t="s">
+        <v>445</v>
+      </c>
+      <c r="D23" t="s">
+        <v>441</v>
+      </c>
+      <c r="E23" t="s">
+        <v>418</v>
+      </c>
+      <c r="I23" t="s">
+        <v>419</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <f>ROW()</f>
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <f>ROW()</f>
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <f>ROW()</f>
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>455</v>
+      </c>
+      <c r="D26" t="s">
+        <v>452</v>
+      </c>
+      <c r="E26" t="s">
+        <v>418</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <f>ROW()</f>
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
         <v>90</v>
       </c>
-      <c r="C16" t="s">
-        <v>453</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <f>ROW()</f>
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>453</v>
-      </c>
-      <c r="C17" t="s">
-        <v>454</v>
-      </c>
-      <c r="D17" t="s">
-        <v>439</v>
-      </c>
-      <c r="E17" t="s">
-        <v>422</v>
-      </c>
-      <c r="I17" t="s">
-        <v>423</v>
-      </c>
-      <c r="J17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <f>ROW()</f>
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <f>ROW()</f>
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>456</v>
+      </c>
+      <c r="D28" t="s">
+        <v>458</v>
+      </c>
+      <c r="E28" t="s">
+        <v>418</v>
+      </c>
+      <c r="J28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <f>ROW()</f>
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>459</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <f>ROW()</f>
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>457</v>
+      </c>
+      <c r="D30" t="s">
         <v>91</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <f>ROW()</f>
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>570</v>
-      </c>
-      <c r="J19" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <f>ROW()</f>
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" t="s">
-        <v>446</v>
-      </c>
-      <c r="D20" t="s">
-        <v>442</v>
-      </c>
-      <c r="E20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I20" t="s">
-        <v>423</v>
-      </c>
-      <c r="J20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <f>ROW()</f>
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" t="s">
-        <v>447</v>
-      </c>
-      <c r="D21" t="s">
-        <v>443</v>
-      </c>
-      <c r="E21" t="s">
-        <v>422</v>
-      </c>
-      <c r="I21" t="s">
-        <v>423</v>
-      </c>
-      <c r="J21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <f>ROW()</f>
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" t="s">
-        <v>448</v>
-      </c>
-      <c r="D22" t="s">
-        <v>444</v>
-      </c>
-      <c r="E22" t="s">
-        <v>422</v>
-      </c>
-      <c r="I22" t="s">
-        <v>423</v>
-      </c>
-      <c r="J22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <f>ROW()</f>
+      <c r="E30" t="s">
+        <v>418</v>
+      </c>
+      <c r="J30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <f>ROW()</f>
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" t="s">
-        <v>449</v>
-      </c>
-      <c r="D23" t="s">
-        <v>445</v>
-      </c>
-      <c r="E23" t="s">
-        <v>422</v>
-      </c>
-      <c r="I23" t="s">
-        <v>423</v>
-      </c>
-      <c r="J23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <f>ROW()</f>
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <f>ROW()</f>
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <f>ROW()</f>
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>459</v>
-      </c>
-      <c r="D26" t="s">
-        <v>456</v>
-      </c>
-      <c r="E26" t="s">
-        <v>422</v>
-      </c>
-      <c r="J26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <f>ROW()</f>
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <f>ROW()</f>
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" t="s">
-        <v>460</v>
-      </c>
-      <c r="D28" t="s">
-        <v>462</v>
-      </c>
-      <c r="E28" t="s">
-        <v>422</v>
-      </c>
-      <c r="J28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <f>ROW()</f>
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" t="s">
-        <v>463</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <f>ROW()</f>
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>461</v>
-      </c>
-      <c r="D30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" t="s">
-        <v>422</v>
-      </c>
-      <c r="J30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <f>ROW()</f>
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J31" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <f>ROW()</f>
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <f>ROW()</f>
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <f>ROW()</f>
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J33" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="M33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <f>ROW()</f>
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <f>ROW()</f>
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="M35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <f>ROW()</f>
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <f>ROW()</f>
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <f>ROW()</f>
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <f>ROW()</f>
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>464</v>
+      </c>
+      <c r="D39" t="s">
+        <v>460</v>
+      </c>
+      <c r="E39" t="s">
+        <v>418</v>
+      </c>
+      <c r="J39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <f>ROW()</f>
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>466</v>
+      </c>
+      <c r="D40" t="s">
+        <v>461</v>
+      </c>
+      <c r="E40" t="s">
+        <v>418</v>
+      </c>
+      <c r="J40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <f>ROW()</f>
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <f>ROW()</f>
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
+        <v>467</v>
+      </c>
+      <c r="D42" t="s">
+        <v>462</v>
+      </c>
+      <c r="E42" t="s">
+        <v>418</v>
+      </c>
+      <c r="J42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <f>ROW()</f>
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
         <v>184</v>
       </c>
-      <c r="E38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <f>ROW()</f>
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <f>ROW()</f>
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
         <v>468</v>
       </c>
-      <c r="D39" t="s">
-        <v>464</v>
-      </c>
-      <c r="E39" t="s">
-        <v>422</v>
-      </c>
-      <c r="J39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <f>ROW()</f>
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>470</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D44" t="s">
+        <v>463</v>
+      </c>
+      <c r="E44" t="s">
+        <v>418</v>
+      </c>
+      <c r="J44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <f>ROW()</f>
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>468</v>
+      </c>
+      <c r="C45" t="s">
+        <v>469</v>
+      </c>
+      <c r="D45" t="s">
         <v>465</v>
       </c>
-      <c r="E40" t="s">
-        <v>422</v>
-      </c>
-      <c r="J40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <f>ROW()</f>
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <f>ROW()</f>
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" t="s">
-        <v>471</v>
-      </c>
-      <c r="D42" t="s">
-        <v>466</v>
-      </c>
-      <c r="E42" t="s">
-        <v>422</v>
-      </c>
-      <c r="J42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <f>ROW()</f>
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <f>ROW()</f>
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" t="s">
-        <v>472</v>
-      </c>
-      <c r="D44" t="s">
-        <v>467</v>
-      </c>
-      <c r="E44" t="s">
-        <v>422</v>
-      </c>
-      <c r="J44" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <f>ROW()</f>
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>472</v>
-      </c>
-      <c r="C45" t="s">
-        <v>473</v>
-      </c>
-      <c r="D45" t="s">
-        <v>469</v>
-      </c>
       <c r="E45" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J45" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4986,8 +5031,8 @@
   </sheetPr>
   <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
@@ -5032,28 +5077,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5062,16 +5107,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -5089,28 +5134,28 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5119,16 +5164,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5137,19 +5182,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5158,19 +5203,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5179,19 +5224,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
         <v>161</v>
       </c>
-      <c r="C7" t="s">
-        <v>165</v>
-      </c>
       <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s">
         <v>122</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5200,28 +5245,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5230,19 +5275,19 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5251,19 +5296,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5272,19 +5317,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5293,19 +5338,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5314,22 +5359,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" t="s">
-        <v>126</v>
-      </c>
       <c r="L13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -5338,28 +5383,28 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5369,20 +5414,20 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5391,20 +5436,20 @@
         <v>16</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5413,20 +5458,20 @@
         <v>17</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5435,23 +5480,23 @@
         <v>18</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -5460,28 +5505,28 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5491,17 +5536,17 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5510,20 +5555,20 @@
         <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5532,19 +5577,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -5553,16 +5598,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K23" s="10"/>
     </row>
@@ -5572,28 +5617,28 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K24" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="M24" t="s">
+        <v>412</v>
+      </c>
+      <c r="N24" t="s">
         <v>179</v>
-      </c>
-      <c r="M24" t="s">
-        <v>416</v>
-      </c>
-      <c r="N24" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5603,20 +5648,20 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5625,20 +5670,20 @@
         <v>26</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5647,23 +5692,23 @@
         <v>27</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5672,28 +5717,28 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M28" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5702,16 +5747,16 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5720,19 +5765,19 @@
         <v>30</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" t="s">
         <v>207</v>
       </c>
-      <c r="C30" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" t="s">
-        <v>211</v>
-      </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5741,19 +5786,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" t="s">
         <v>208</v>
       </c>
-      <c r="C31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D31" t="s">
-        <v>212</v>
-      </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5762,22 +5807,22 @@
         <v>32</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32" t="s">
-        <v>126</v>
-      </c>
       <c r="L32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5786,28 +5831,28 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M33" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5817,16 +5862,16 @@
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5835,22 +5880,22 @@
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5859,28 +5904,28 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E36" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M36" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N36" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5890,16 +5935,16 @@
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5908,22 +5953,22 @@
         <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>285</v>
-      </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L38" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -5932,13 +5977,13 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5947,28 +5992,28 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K40" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="M40" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5978,16 +6023,16 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5996,19 +6041,19 @@
         <v>42</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6017,19 +6062,19 @@
         <v>43</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6038,19 +6083,19 @@
         <v>44</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D44" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K44" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -6059,13 +6104,13 @@
         <v>45</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6074,28 +6119,28 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J46" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K46" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="M46" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6104,19 +6149,19 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D47" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6125,19 +6170,19 @@
         <v>48</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D48" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6146,22 +6191,22 @@
         <v>49</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C49" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K49" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K49" t="s">
-        <v>126</v>
-      </c>
       <c r="L49" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6170,28 +6215,28 @@
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K50" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="M50" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6201,16 +6246,16 @@
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K51" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6219,19 +6264,19 @@
         <v>52</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>307</v>
-      </c>
       <c r="D52" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K52" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6240,19 +6285,19 @@
         <v>53</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D53" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K53" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -6261,13 +6306,13 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6276,28 +6321,28 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" t="s">
+        <v>199</v>
+      </c>
+      <c r="J55" t="s">
+        <v>221</v>
+      </c>
+      <c r="K55" t="s">
         <v>240</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E55" t="s">
-        <v>203</v>
-      </c>
-      <c r="J55" t="s">
-        <v>225</v>
-      </c>
-      <c r="K55" t="s">
-        <v>244</v>
-      </c>
       <c r="M55" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N55" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6306,16 +6351,16 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>245</v>
-      </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K56" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6324,19 +6369,19 @@
         <v>57</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D57" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K57" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6345,19 +6390,19 @@
         <v>58</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K58" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -6366,13 +6411,13 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6381,34 +6426,34 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J60" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K60" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M60" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N60" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O60" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6417,16 +6462,16 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D61" t="s">
+        <v>245</v>
+      </c>
+      <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="K61" t="s">
         <v>249</v>
-      </c>
-      <c r="E61" t="s">
-        <v>120</v>
-      </c>
-      <c r="K61" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6435,19 +6480,19 @@
         <v>62</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C62" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K62" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6456,19 +6501,19 @@
         <v>63</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C63" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K63" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6477,34 +6522,34 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C64" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E64" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J64" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K64" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M64" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N64" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P64" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6513,16 +6558,16 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K65" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6531,19 +6576,19 @@
         <v>66</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K66" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -6552,13 +6597,13 @@
         <v>67</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6567,22 +6612,22 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E68" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J68" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K68" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6591,16 +6636,16 @@
         <v>69</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D69" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K69" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6609,19 +6654,19 @@
         <v>70</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K70" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6630,19 +6675,19 @@
         <v>71</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D71" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K71" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6651,19 +6696,19 @@
         <v>72</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D72" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K72" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -6673,13 +6718,13 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -6694,16 +6739,16 @@
         <v>74</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6713,25 +6758,25 @@
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E75" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J75" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K75" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M75" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N75" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6741,16 +6786,16 @@
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E76" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K76" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6759,19 +6804,19 @@
         <v>77</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E77" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K77" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6780,16 +6825,16 @@
         <v>78</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6798,28 +6843,28 @@
         <v>79</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J79" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K79" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M79" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N79" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6829,16 +6874,16 @@
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E80" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K80" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6847,19 +6892,19 @@
         <v>81</v>
       </c>
       <c r="B81" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>327</v>
-      </c>
       <c r="E81" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K81" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6868,19 +6913,19 @@
         <v>82</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E82" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K82" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -6890,13 +6935,13 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -6911,16 +6956,16 @@
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6929,13 +6974,13 @@
         <v>85</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6944,28 +6989,28 @@
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E86" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J86" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K86" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M86" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N86" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6974,16 +7019,16 @@
         <v>87</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D87" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E87" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K87" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6992,19 +7037,19 @@
         <v>88</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D88" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E88" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K88" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7013,28 +7058,28 @@
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E89" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J89" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K89" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M89" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N89" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7043,16 +7088,16 @@
         <v>90</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D90" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E90" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K90" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7061,19 +7106,19 @@
         <v>91</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D91" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E91" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K91" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7082,28 +7127,28 @@
         <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E92" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J92" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K92" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M92" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N92" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7112,16 +7157,16 @@
         <v>93</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D93" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E93" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K93" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7130,19 +7175,19 @@
         <v>94</v>
       </c>
       <c r="B94" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>301</v>
-      </c>
       <c r="D94" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E94" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K94" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -7152,13 +7197,13 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -7173,16 +7218,16 @@
         <v>96</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7191,25 +7236,25 @@
         <v>97</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E97" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J97" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K97" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M97" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N97" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7218,16 +7263,16 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D98" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E98" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K98" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7236,19 +7281,19 @@
         <v>99</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C99" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D99" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E99" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K99" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7257,19 +7302,19 @@
         <v>100</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C100" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D100" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E100" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K100" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7278,19 +7323,19 @@
         <v>101</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C101" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D101" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E101" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K101" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7299,16 +7344,16 @@
         <v>102</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7317,25 +7362,25 @@
         <v>103</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J103" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K103" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M103" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N103" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7344,16 +7389,16 @@
         <v>104</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D104" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E104" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K104" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7362,19 +7407,19 @@
         <v>105</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D105" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E105" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K105" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7383,19 +7428,19 @@
         <v>106</v>
       </c>
       <c r="B106" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D106" t="s">
+        <v>333</v>
+      </c>
+      <c r="E106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K106" t="s">
         <v>350</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D106" t="s">
-        <v>337</v>
-      </c>
-      <c r="E106" t="s">
-        <v>120</v>
-      </c>
-      <c r="K106" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7404,19 +7449,19 @@
         <v>107</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D107" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E107" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K107" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7425,19 +7470,19 @@
         <v>108</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D108" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E108" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K108" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="109" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7446,16 +7491,16 @@
         <v>109</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7464,28 +7509,28 @@
         <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J110" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K110" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M110" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N110" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7494,16 +7539,16 @@
         <v>111</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D111" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E111" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K111" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="112" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7512,16 +7557,16 @@
         <v>112</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E112" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K112" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7530,16 +7575,16 @@
         <v>113</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D113" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E113" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7548,16 +7593,16 @@
         <v>114</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D114" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E114" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7566,28 +7611,28 @@
         <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E115" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J115" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K115" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M115" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N115" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7596,16 +7641,16 @@
         <v>116</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D116" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E116" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K116" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7614,19 +7659,19 @@
         <v>117</v>
       </c>
       <c r="B117" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>389</v>
-      </c>
       <c r="D117" t="s">
+        <v>383</v>
+      </c>
+      <c r="E117" t="s">
+        <v>116</v>
+      </c>
+      <c r="K117" t="s">
         <v>387</v>
-      </c>
-      <c r="E117" t="s">
-        <v>120</v>
-      </c>
-      <c r="K117" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7635,19 +7680,19 @@
         <v>118</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D118" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E118" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K118" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7656,16 +7701,16 @@
         <v>119</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7674,28 +7719,28 @@
         <v>120</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E120" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J120" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K120" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="M120" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N120" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7704,16 +7749,16 @@
         <v>121</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D121" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E121" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K121" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7722,19 +7767,19 @@
         <v>122</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D122" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E122" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K122" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7743,19 +7788,19 @@
         <v>123</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D123" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E123" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K123" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7764,19 +7809,19 @@
         <v>124</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D124" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E124" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K124" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7785,16 +7830,16 @@
         <v>125</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7803,28 +7848,28 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
+        <v>408</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E126" t="s">
+        <v>199</v>
+      </c>
+      <c r="J126" t="s">
+        <v>221</v>
+      </c>
+      <c r="K126" t="s">
+        <v>240</v>
+      </c>
+      <c r="M126" t="s">
         <v>412</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E126" t="s">
-        <v>203</v>
-      </c>
-      <c r="J126" t="s">
-        <v>225</v>
-      </c>
-      <c r="K126" t="s">
-        <v>244</v>
-      </c>
-      <c r="M126" t="s">
-        <v>416</v>
-      </c>
       <c r="N126" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7833,16 +7878,16 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D127" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E127" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K127" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7851,22 +7896,22 @@
         <v>128</v>
       </c>
       <c r="B128" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C128" t="s">
         <v>395</v>
       </c>
-      <c r="C128" t="s">
-        <v>399</v>
-      </c>
       <c r="D128" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E128" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G128">
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7875,22 +7920,22 @@
         <v>129</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C129" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D129" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E129" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G129">
         <v>2</v>
       </c>
       <c r="K129" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -7949,28 +7994,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -7979,16 +8024,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -8007,16 +8052,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8035,31 +8080,31 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -8069,16 +8114,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8087,16 +8132,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8105,16 +8150,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8123,16 +8168,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C8" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -8144,16 +8189,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -8165,16 +8210,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -8186,16 +8231,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" t="s">
         <v>484</v>
       </c>
-      <c r="C11" t="s">
-        <v>488</v>
-      </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -8207,16 +8252,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C12" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -8228,16 +8273,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C13" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -8249,22 +8294,22 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8273,22 +8318,22 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15" t="s">
         <v>492</v>
-      </c>
-      <c r="D15" t="s">
-        <v>494</v>
-      </c>
-      <c r="E15" t="s">
-        <v>496</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8297,22 +8342,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D16" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E16" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8321,22 +8366,22 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E17" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8345,19 +8390,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E18" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="O18" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8366,22 +8411,22 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D19" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E19" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8390,22 +8435,22 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D20" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E20" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8414,22 +8459,22 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D21" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E21" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
       <c r="O21" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8438,19 +8483,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
+        <v>518</v>
+      </c>
+      <c r="D22" t="s">
         <v>522</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>492</v>
+      </c>
+      <c r="O22" t="s">
         <v>526</v>
-      </c>
-      <c r="E22" t="s">
-        <v>496</v>
-      </c>
-      <c r="O22" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8459,22 +8504,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8483,19 +8528,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D24" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E24" t="s">
+        <v>509</v>
+      </c>
+      <c r="O24" t="s">
         <v>513</v>
-      </c>
-      <c r="O24" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8504,19 +8549,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
+        <v>510</v>
+      </c>
+      <c r="D25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E25" t="s">
+        <v>509</v>
+      </c>
+      <c r="O25" t="s">
         <v>514</v>
-      </c>
-      <c r="D25" t="s">
-        <v>511</v>
-      </c>
-      <c r="E25" t="s">
-        <v>513</v>
-      </c>
-      <c r="O25" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8525,19 +8570,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
+        <v>511</v>
+      </c>
+      <c r="D26" t="s">
+        <v>528</v>
+      </c>
+      <c r="E26" t="s">
+        <v>509</v>
+      </c>
+      <c r="O26" t="s">
         <v>515</v>
-      </c>
-      <c r="D26" t="s">
-        <v>532</v>
-      </c>
-      <c r="E26" t="s">
-        <v>513</v>
-      </c>
-      <c r="O26" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8546,19 +8591,19 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D27" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E27" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="O27" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8567,19 +8612,19 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D28" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E28" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="O28" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -8588,22 +8633,22 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8612,19 +8657,19 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D30" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O30" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8633,16 +8678,16 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8651,19 +8696,19 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C32" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D32" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O32" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8672,19 +8717,19 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C33" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8693,19 +8738,19 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>535</v>
+      </c>
+      <c r="C34" t="s">
+        <v>544</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="C34" t="s">
-        <v>548</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>543</v>
-      </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O34" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8714,19 +8759,19 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O35" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8735,19 +8780,19 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O36" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -8756,19 +8801,19 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8777,16 +8822,16 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D38" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M38" s="10"/>
     </row>
@@ -8796,13 +8841,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C39" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D39" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M39" s="10"/>
     </row>
@@ -8812,13 +8857,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D40" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M40" s="10"/>
     </row>
@@ -8828,19 +8873,19 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C41" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D41" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8849,19 +8894,19 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>555</v>
+      </c>
+      <c r="C42" t="s">
         <v>559</v>
       </c>
-      <c r="C42" t="s">
-        <v>563</v>
-      </c>
       <c r="D42" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8870,19 +8915,19 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C43" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O43" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/ea1.xlsx
+++ b/ea1.xlsx
@@ -53,12 +53,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Материнские</t>
-  </si>
-  <si>
-    <t>Общее собрание</t>
-  </si>
-  <si>
     <t>Ревизионная комиссия</t>
   </si>
   <si>
@@ -86,15 +80,9 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Другие предстваления уровня 0</t>
-  </si>
-  <si>
     <t>Технологический</t>
   </si>
   <si>
-    <t>Взаимодействующие</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
@@ -374,9 +362,6 @@
     <t>p.r</t>
   </si>
   <si>
-    <t>Дочерние (нет)</t>
-  </si>
-  <si>
     <t>Техподдержка распределительной электросети</t>
   </si>
   <si>
@@ -1685,9 +1670,6 @@
     <t>Налоги</t>
   </si>
   <si>
-    <t>ЕА и окружение</t>
-  </si>
-  <si>
     <t>Доходная часть</t>
   </si>
   <si>
@@ -1781,13 +1763,31 @@
     <t>Клиенты (члены СНТ)</t>
   </si>
   <si>
-    <t>Собственник (общее собрание)</t>
-  </si>
-  <si>
     <t>Регуляторы (ФНС и т.п.)</t>
   </si>
   <si>
     <t>Поставщики (ЭнергоСбыт и т.п.)</t>
+  </si>
+  <si>
+    <t>Другие представления уровня 0</t>
+  </si>
+  <si>
+    <t>Материнские компании</t>
+  </si>
+  <si>
+    <t>Дочерние компании (нет)</t>
+  </si>
+  <si>
+    <t>Взаимодействующие структуры</t>
+  </si>
+  <si>
+    <t>Общее собрание СНТ</t>
+  </si>
+  <si>
+    <t>Собственник (общее собрание СНТ)</t>
+  </si>
+  <si>
+    <t>Предприятие и окружение</t>
   </si>
 </sst>
 </file>
@@ -2214,8 +2214,8 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2254,16 +2254,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2272,16 +2272,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2290,28 +2290,28 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>580</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2320,28 +2320,28 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2350,28 +2350,28 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2380,16 +2380,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
+        <v>583</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2407,16 +2407,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2434,28 +2434,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>582</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2464,28 +2464,28 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2494,28 +2494,28 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2524,28 +2524,28 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2554,28 +2554,28 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>114</v>
+        <v>581</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2584,28 +2584,28 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>579</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2614,16 +2614,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2641,31 +2641,31 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J15" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2674,34 +2674,34 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K16" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2710,34 +2710,34 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J17" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2746,28 +2746,28 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2776,22 +2776,22 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2806,22 +2806,22 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2839,22 +2839,22 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2872,28 +2872,28 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2902,28 +2902,28 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -2932,22 +2932,22 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2956,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2965,27 +2965,27 @@
         <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H25" s="8">
         <v>1</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J25" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2994,16 +2994,16 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
         <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" t="s">
-        <v>75</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3018,13 +3018,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3042,13 +3042,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3057,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3066,16 +3066,16 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3090,13 +3090,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3114,13 +3114,13 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3138,17 +3138,17 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3157,25 +3157,25 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J33" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3184,16 +3184,16 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3208,13 +3208,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I35" s="5"/>
     </row>
@@ -3224,16 +3224,16 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -3243,16 +3243,16 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G37" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="I37" s="5"/>
     </row>
@@ -3262,16 +3262,16 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3286,13 +3286,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I39" s="5"/>
     </row>
@@ -3302,16 +3302,16 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D40" t="s">
+        <v>556</v>
+      </c>
+      <c r="G40" t="s">
         <v>562</v>
-      </c>
-      <c r="G40" t="s">
-        <v>568</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -3321,25 +3321,25 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G41" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J41" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3348,16 +3348,16 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3366,7 +3366,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3375,16 +3375,16 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
         <v>92</v>
       </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
       <c r="D43" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3402,16 +3402,16 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -3420,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3429,28 +3429,28 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="J45" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3459,22 +3459,22 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -3485,28 +3485,28 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J47" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3515,25 +3515,25 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J48" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K48" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3542,28 +3542,28 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J49" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K49" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3572,28 +3572,28 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J50" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K50" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3602,28 +3602,28 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J51" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K51" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3632,31 +3632,31 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="J52" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3665,25 +3665,25 @@
         <v>53</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J53" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K53" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3692,25 +3692,25 @@
         <v>54</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J54" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K54" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3719,31 +3719,31 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="J55" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K55" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3752,25 +3752,25 @@
         <v>56</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J56" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K56" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3779,31 +3779,31 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
         <v>22</v>
-      </c>
-      <c r="C57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="J57" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K57" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3812,25 +3812,25 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J58" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K58" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3839,25 +3839,25 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J59" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K59" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3866,25 +3866,25 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J60" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K60" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3893,25 +3893,25 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J61" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K61" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3920,25 +3920,25 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D62" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
+        <v>174</v>
+      </c>
+      <c r="J62" t="s">
         <v>407</v>
       </c>
-      <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" t="s">
-        <v>179</v>
-      </c>
-      <c r="J62" t="s">
-        <v>412</v>
-      </c>
       <c r="K62" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3997,28 +3997,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4027,13 +4027,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4041,7 +4041,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -4055,22 +4055,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4079,16 +4079,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4097,22 +4097,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4121,22 +4121,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4145,19 +4145,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4166,22 +4166,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4190,19 +4190,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4211,22 +4211,22 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I10" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4235,19 +4235,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4256,19 +4256,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C12" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="I12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4277,22 +4277,22 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E13" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I13" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4301,22 +4301,22 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I14" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4325,22 +4325,22 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C15" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D15" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E15" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I15" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J15" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4349,19 +4349,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4370,22 +4370,22 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D17" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E17" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I17" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4394,19 +4394,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4415,22 +4415,22 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="J19" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4439,22 +4439,22 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E20" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I20" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4463,22 +4463,22 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D21" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E21" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I21" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4487,22 +4487,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D22" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E22" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I22" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4511,22 +4511,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D23" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E23" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I23" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4535,19 +4535,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4556,19 +4556,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4577,19 +4577,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D26" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E26" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4598,19 +4598,19 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
         <v>92</v>
       </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4619,22 +4619,22 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D28" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4643,19 +4643,19 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4664,19 +4664,19 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J30" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4685,22 +4685,22 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J31" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4709,19 +4709,19 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4730,25 +4730,25 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J33" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M33" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4757,25 +4757,25 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J34" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4784,22 +4784,22 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M35" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4808,25 +4808,25 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4835,19 +4835,19 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4856,19 +4856,19 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4877,19 +4877,19 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D39" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E39" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J39" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4898,19 +4898,19 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D40" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E40" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J40" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4919,19 +4919,19 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4940,19 +4940,19 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D42" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E42" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J42" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4961,19 +4961,19 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4982,19 +4982,19 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D44" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E44" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J44" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5003,19 +5003,19 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C45" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D45" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E45" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J45" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5077,28 +5077,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5107,16 +5107,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -5134,28 +5134,28 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5164,16 +5164,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5182,19 +5182,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="C5" t="s">
-        <v>156</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" t="s">
         <v>116</v>
-      </c>
-      <c r="K5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5203,19 +5203,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s">
         <v>116</v>
-      </c>
-      <c r="K6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5224,19 +5224,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5245,28 +5245,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5275,19 +5275,19 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K9" t="s">
-        <v>122</v>
-      </c>
       <c r="L9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5296,19 +5296,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
         <v>116</v>
-      </c>
-      <c r="K10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5317,19 +5317,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
         <v>116</v>
-      </c>
-      <c r="K11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5338,19 +5338,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
         <v>116</v>
-      </c>
-      <c r="K12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5359,22 +5359,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -5383,28 +5383,28 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5414,20 +5414,20 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5436,20 +5436,20 @@
         <v>16</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5458,20 +5458,20 @@
         <v>17</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
         <v>154</v>
       </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5480,23 +5480,23 @@
         <v>18</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -5505,28 +5505,28 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M19" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5536,17 +5536,17 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5555,20 +5555,20 @@
         <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5577,19 +5577,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -5598,16 +5598,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K23" s="10"/>
     </row>
@@ -5617,28 +5617,28 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5648,20 +5648,20 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5670,20 +5670,20 @@
         <v>26</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5692,23 +5692,23 @@
         <v>27</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5717,28 +5717,28 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M28" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5747,16 +5747,16 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5765,19 +5765,19 @@
         <v>30</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5786,19 +5786,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5807,22 +5807,22 @@
         <v>32</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L32" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5831,28 +5831,28 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N33" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5862,16 +5862,16 @@
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5880,22 +5880,22 @@
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>280</v>
-      </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5904,28 +5904,28 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M36" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N36" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5935,16 +5935,16 @@
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5953,22 +5953,22 @@
         <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L38" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -5977,13 +5977,13 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5992,28 +5992,28 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J40" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K40" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="M40" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6023,16 +6023,16 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" t="s">
         <v>216</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6041,19 +6041,19 @@
         <v>42</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6062,19 +6062,19 @@
         <v>43</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6083,19 +6083,19 @@
         <v>44</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
         <v>218</v>
       </c>
-      <c r="C44" t="s">
-        <v>223</v>
-      </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K44" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -6104,13 +6104,13 @@
         <v>45</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6119,28 +6119,28 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E46" t="s">
+        <v>194</v>
+      </c>
+      <c r="J46" t="s">
         <v>226</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="E46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J46" t="s">
-        <v>231</v>
-      </c>
       <c r="K46" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M46" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N46" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6149,19 +6149,19 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D47" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6170,19 +6170,19 @@
         <v>48</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C48" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K48" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6191,22 +6191,22 @@
         <v>49</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K49" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L49" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6215,28 +6215,28 @@
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E50" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K50" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M50" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N50" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6246,16 +6246,16 @@
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D51" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" t="s">
         <v>300</v>
-      </c>
-      <c r="E51" t="s">
-        <v>116</v>
-      </c>
-      <c r="K51" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6264,19 +6264,19 @@
         <v>52</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D52" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6285,19 +6285,19 @@
         <v>53</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D53" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K53" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -6306,13 +6306,13 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6321,28 +6321,28 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E55" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J55" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K55" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M55" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N55" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6351,16 +6351,16 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K56" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6369,19 +6369,19 @@
         <v>57</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K57" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6390,19 +6390,19 @@
         <v>58</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K58" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -6411,13 +6411,13 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6426,34 +6426,34 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" t="s">
+        <v>194</v>
+      </c>
+      <c r="J60" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E60" t="s">
-        <v>199</v>
-      </c>
-      <c r="J60" t="s">
-        <v>249</v>
-      </c>
       <c r="K60" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M60" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N60" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O60" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P60" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6462,16 +6462,16 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K61" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6480,19 +6480,19 @@
         <v>62</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D62" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E62" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K62" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6501,19 +6501,19 @@
         <v>63</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D63" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K63" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6522,34 +6522,34 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E64" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J64" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K64" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M64" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N64" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O64" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P64" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6558,16 +6558,16 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E65" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K65" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6576,19 +6576,19 @@
         <v>66</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C66" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E66" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K66" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -6597,13 +6597,13 @@
         <v>67</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6612,22 +6612,22 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E68" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J68" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K68" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6636,16 +6636,16 @@
         <v>69</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E69" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K69" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6654,19 +6654,19 @@
         <v>70</v>
       </c>
       <c r="B70" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="D70" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E70" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K70" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6675,19 +6675,19 @@
         <v>71</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D71" t="s">
+        <v>261</v>
+      </c>
+      <c r="E71" t="s">
+        <v>111</v>
+      </c>
+      <c r="K71" t="s">
         <v>266</v>
-      </c>
-      <c r="E71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K71" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6696,19 +6696,19 @@
         <v>72</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D72" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E72" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K72" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -6718,13 +6718,13 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -6739,16 +6739,16 @@
         <v>74</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6758,25 +6758,25 @@
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="10" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E75" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J75" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K75" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M75" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N75" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6786,16 +6786,16 @@
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E76" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K76" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6804,19 +6804,19 @@
         <v>77</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E77" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K77" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6825,16 +6825,16 @@
         <v>78</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6843,28 +6843,28 @@
         <v>79</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E79" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J79" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K79" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M79" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N79" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6874,16 +6874,16 @@
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E80" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K80" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6892,19 +6892,19 @@
         <v>81</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E81" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K81" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6913,19 +6913,19 @@
         <v>82</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E82" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K82" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -6935,13 +6935,13 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -6956,16 +6956,16 @@
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6974,13 +6974,13 @@
         <v>85</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6989,28 +6989,28 @@
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E86" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J86" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K86" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M86" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N86" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7019,16 +7019,16 @@
         <v>87</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D87" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E87" t="s">
+        <v>111</v>
+      </c>
+      <c r="K87" t="s">
         <v>116</v>
-      </c>
-      <c r="K87" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7037,19 +7037,19 @@
         <v>88</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D88" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E88" t="s">
+        <v>111</v>
+      </c>
+      <c r="K88" t="s">
         <v>116</v>
-      </c>
-      <c r="K88" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7058,28 +7058,28 @@
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E89" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J89" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K89" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M89" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N89" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7088,16 +7088,16 @@
         <v>90</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D90" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E90" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K90" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7106,19 +7106,19 @@
         <v>91</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D91" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E91" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K91" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7127,28 +7127,28 @@
         <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E92" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J92" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K92" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M92" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N92" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7157,16 +7157,16 @@
         <v>93</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D93" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E93" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K93" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7175,19 +7175,19 @@
         <v>94</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D94" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E94" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -7197,13 +7197,13 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -7218,16 +7218,16 @@
         <v>96</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7236,25 +7236,25 @@
         <v>97</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E97" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J97" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K97" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M97" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N97" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7263,16 +7263,16 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D98" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E98" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K98" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7281,19 +7281,19 @@
         <v>99</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C99" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D99" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K99" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7302,19 +7302,19 @@
         <v>100</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C100" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D100" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E100" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K100" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7323,19 +7323,19 @@
         <v>101</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C101" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D101" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E101" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K101" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7344,16 +7344,16 @@
         <v>102</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7362,25 +7362,25 @@
         <v>103</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J103" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K103" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M103" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N103" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7389,16 +7389,16 @@
         <v>104</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D104" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E104" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K104" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7407,19 +7407,19 @@
         <v>105</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D105" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E105" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K105" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7428,19 +7428,19 @@
         <v>106</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D106" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E106" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7449,19 +7449,19 @@
         <v>107</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D107" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E107" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K107" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7470,19 +7470,19 @@
         <v>108</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D108" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E108" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K108" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7491,16 +7491,16 @@
         <v>109</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7509,28 +7509,28 @@
         <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E110" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J110" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K110" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M110" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7539,16 +7539,16 @@
         <v>111</v>
       </c>
       <c r="C111" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D111" t="s">
         <v>355</v>
       </c>
-      <c r="D111" t="s">
-        <v>360</v>
-      </c>
       <c r="E111" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K111" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7557,16 +7557,16 @@
         <v>112</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D112" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E112" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K112" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7575,16 +7575,16 @@
         <v>113</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D113" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E113" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K113" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7593,16 +7593,16 @@
         <v>114</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D114" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E114" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K114" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7611,28 +7611,28 @@
         <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E115" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J115" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K115" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M115" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N115" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7641,16 +7641,16 @@
         <v>116</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D116" t="s">
+        <v>377</v>
+      </c>
+      <c r="E116" t="s">
+        <v>111</v>
+      </c>
+      <c r="K116" t="s">
         <v>382</v>
-      </c>
-      <c r="E116" t="s">
-        <v>116</v>
-      </c>
-      <c r="K116" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="117" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7659,19 +7659,19 @@
         <v>117</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D117" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E117" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K117" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7680,19 +7680,19 @@
         <v>118</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D118" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E118" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K118" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7701,16 +7701,16 @@
         <v>119</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7719,28 +7719,28 @@
         <v>120</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E120" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J120" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K120" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M120" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N120" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7749,16 +7749,16 @@
         <v>121</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D121" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E121" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K121" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7767,19 +7767,19 @@
         <v>122</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D122" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E122" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K122" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7788,19 +7788,19 @@
         <v>123</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D123" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E123" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K123" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7809,19 +7809,19 @@
         <v>124</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D124" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E124" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K124" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7830,16 +7830,16 @@
         <v>125</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7848,28 +7848,28 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E126" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J126" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K126" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M126" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N126" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7878,16 +7878,16 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D127" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E127" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K127" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7896,22 +7896,22 @@
         <v>128</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C128" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D128" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E128" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G128">
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7920,22 +7920,22 @@
         <v>129</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C129" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D129" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E129" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G129">
         <v>2</v>
       </c>
       <c r="K129" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7994,28 +7994,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -8024,16 +8024,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -8052,16 +8052,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8080,31 +8080,31 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="10" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -8114,16 +8114,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8132,16 +8132,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8150,16 +8150,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8168,16 +8168,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C8" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -8189,16 +8189,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C9" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -8210,16 +8210,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C10" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -8231,16 +8231,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -8252,16 +8252,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" t="s">
         <v>480</v>
       </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -8273,16 +8273,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C13" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D13" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -8294,22 +8294,22 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8318,22 +8318,22 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D15" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E15" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8342,22 +8342,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D16" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E16" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8366,22 +8366,22 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D17" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E17" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8390,19 +8390,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D18" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E18" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O18" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8411,22 +8411,22 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8435,22 +8435,22 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D20" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E20" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8459,22 +8459,22 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D21" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E21" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
       <c r="O21" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8483,19 +8483,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D22" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E22" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O22" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8504,22 +8504,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8528,19 +8528,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D24" t="s">
+        <v>503</v>
+      </c>
+      <c r="E24" t="s">
+        <v>504</v>
+      </c>
+      <c r="O24" t="s">
         <v>508</v>
-      </c>
-      <c r="E24" t="s">
-        <v>509</v>
-      </c>
-      <c r="O24" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8549,19 +8549,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D25" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E25" t="s">
+        <v>504</v>
+      </c>
+      <c r="O25" t="s">
         <v>509</v>
-      </c>
-      <c r="O25" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8570,19 +8570,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D26" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E26" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="O26" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8591,19 +8591,19 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D27" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E27" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="O27" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8612,19 +8612,19 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
+        <v>515</v>
+      </c>
+      <c r="D28" t="s">
+        <v>514</v>
+      </c>
+      <c r="E28" t="s">
+        <v>504</v>
+      </c>
+      <c r="O28" t="s">
         <v>520</v>
-      </c>
-      <c r="D28" t="s">
-        <v>519</v>
-      </c>
-      <c r="E28" t="s">
-        <v>509</v>
-      </c>
-      <c r="O28" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -8633,22 +8633,22 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8657,19 +8657,19 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D30" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O30" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8678,16 +8678,16 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8696,19 +8696,19 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C32" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D32" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O32" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8717,19 +8717,19 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C33" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8738,19 +8738,19 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>530</v>
+      </c>
+      <c r="C34" t="s">
+        <v>539</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" t="s">
         <v>535</v>
-      </c>
-      <c r="C34" t="s">
-        <v>544</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="E34" t="s">
-        <v>69</v>
-      </c>
-      <c r="O34" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8759,19 +8759,19 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O35" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8780,19 +8780,19 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O36" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -8801,19 +8801,19 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8822,16 +8822,16 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D38" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M38" s="10"/>
     </row>
@@ -8841,13 +8841,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C39" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D39" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M39" s="10"/>
     </row>
@@ -8857,13 +8857,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D40" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M40" s="10"/>
     </row>
@@ -8873,19 +8873,19 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C41" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D41" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8894,19 +8894,19 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C42" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D42" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8915,19 +8915,19 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C43" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O43" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
